--- a/Team-Data/2013-14/12-3-2013-14.xlsx
+++ b/Team-Data/2013-14/12-3-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -759,13 +826,13 @@
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>14</v>
@@ -774,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ2" t="n">
         <v>18</v>
@@ -798,28 +865,28 @@
         <v>5</v>
       </c>
       <c r="AV2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>3</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -848,61 +915,61 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4</v>
+        <v>0.368</v>
       </c>
       <c r="H3" t="n">
         <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J3" t="n">
-        <v>81</v>
+        <v>81.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.447</v>
+        <v>0.445</v>
       </c>
       <c r="L3" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="M3" t="n">
-        <v>17.9</v>
+        <v>17.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.342</v>
+        <v>0.333</v>
       </c>
       <c r="O3" t="n">
-        <v>15.3</v>
+        <v>14.9</v>
       </c>
       <c r="P3" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R3" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S3" t="n">
         <v>30.9</v>
       </c>
       <c r="T3" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U3" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="V3" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W3" t="n">
         <v>7.3</v>
@@ -911,46 +978,46 @@
         <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA3" t="n">
         <v>18.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>93.8</v>
+        <v>93</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.1</v>
+        <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
         <v>1</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG3" t="n">
         <v>22</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK3" t="n">
         <v>19</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AM3" t="n">
         <v>26</v>
@@ -965,19 +1032,19 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>17</v>
       </c>
       <c r="AS3" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AT3" t="n">
         <v>20</v>
       </c>
       <c r="AU3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV3" t="n">
         <v>24</v>
@@ -995,7 +1062,7 @@
         <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB3" t="n">
         <v>25</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -1030,121 +1097,121 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>0.278</v>
+        <v>0.294</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>34.5</v>
+        <v>34.8</v>
       </c>
       <c r="J4" t="n">
-        <v>79.90000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="L4" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="M4" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.348</v>
+        <v>0.36</v>
       </c>
       <c r="O4" t="n">
-        <v>19.8</v>
+        <v>19.5</v>
       </c>
       <c r="P4" t="n">
-        <v>26.3</v>
+        <v>25.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="R4" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S4" t="n">
-        <v>31</v>
+        <v>31.3</v>
       </c>
       <c r="T4" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U4" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="V4" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.3</v>
+        <v>95.8</v>
       </c>
       <c r="AC4" t="n">
-        <v>-7.6</v>
+        <v>-6.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
         <v>25</v>
       </c>
       <c r="AF4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="n">
         <v>27</v>
       </c>
-      <c r="AG4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>28</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK4" t="n">
         <v>23</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM4" t="n">
         <v>24</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ4" t="n">
         <v>16</v>
@@ -1153,7 +1220,7 @@
         <v>16</v>
       </c>
       <c r="AS4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT4" t="n">
         <v>19</v>
@@ -1162,19 +1229,19 @@
         <v>23</v>
       </c>
       <c r="AV4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AW4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA4" t="n">
         <v>11</v>
@@ -1183,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -1212,94 +1279,94 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>0.421</v>
+        <v>0.444</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="J5" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.409</v>
+        <v>0.41</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.294</v>
+        <v>0.301</v>
       </c>
       <c r="O5" t="n">
         <v>19.6</v>
       </c>
       <c r="P5" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.703</v>
+        <v>0.7</v>
       </c>
       <c r="R5" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S5" t="n">
-        <v>31.6</v>
+        <v>31.2</v>
       </c>
       <c r="T5" t="n">
-        <v>43.1</v>
+        <v>42.7</v>
       </c>
       <c r="U5" t="n">
-        <v>17.7</v>
+        <v>18.1</v>
       </c>
       <c r="V5" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X5" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>88.8</v>
+        <v>89.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.9</v>
+        <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG5" t="n">
         <v>18</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>23</v>
@@ -1320,28 +1387,28 @@
         <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP5" t="n">
         <v>3</v>
       </c>
       <c r="AQ5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>11</v>
       </c>
       <c r="AS5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT5" t="n">
         <v>15</v>
       </c>
-      <c r="AT5" t="n">
-        <v>14</v>
-      </c>
       <c r="AU5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV5" t="n">
         <v>6</v>
@@ -1353,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>7</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -1472,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG6" t="n">
         <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
@@ -1493,7 +1560,7 @@
         <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL6" t="n">
         <v>28</v>
@@ -1502,7 +1569,7 @@
         <v>28</v>
       </c>
       <c r="AN6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
         <v>12</v>
@@ -1517,13 +1584,13 @@
         <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV6" t="n">
         <v>22</v>
@@ -1532,7 +1599,7 @@
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -1654,22 +1721,22 @@
         <v>-8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
         <v>25</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG7" t="n">
         <v>25</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
         <v>12</v>
@@ -1684,13 +1751,13 @@
         <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
       </c>
       <c r="AP7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ7" t="n">
         <v>17</v>
@@ -1702,7 +1769,7 @@
         <v>20</v>
       </c>
       <c r="AT7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU7" t="n">
         <v>27</v>
@@ -1711,16 +1778,16 @@
         <v>23</v>
       </c>
       <c r="AW7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX7" t="n">
         <v>21</v>
       </c>
       <c r="AY7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA7" t="n">
         <v>24</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -1758,64 +1825,64 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
         <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>0.579</v>
+        <v>0.556</v>
       </c>
       <c r="H8" t="n">
         <v>48</v>
       </c>
       <c r="I8" t="n">
-        <v>38.7</v>
+        <v>39</v>
       </c>
       <c r="J8" t="n">
-        <v>83.7</v>
+        <v>83.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.462</v>
+        <v>0.466</v>
       </c>
       <c r="L8" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M8" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="N8" t="n">
         <v>0.382</v>
       </c>
       <c r="O8" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P8" t="n">
-        <v>21.4</v>
+        <v>21.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.82</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R8" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>30.9</v>
+        <v>30.6</v>
       </c>
       <c r="T8" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="U8" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="V8" t="n">
-        <v>15.2</v>
+        <v>15.5</v>
       </c>
       <c r="W8" t="n">
-        <v>9.1</v>
+        <v>9.4</v>
       </c>
       <c r="X8" t="n">
         <v>4.3</v>
@@ -1824,19 +1891,19 @@
         <v>3.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA8" t="n">
         <v>19.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.7</v>
+        <v>104.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1851,22 +1918,22 @@
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
       </c>
       <c r="AM8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
         <v>14</v>
@@ -1878,25 +1945,25 @@
         <v>1</v>
       </c>
       <c r="AR8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AS8" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AT8" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AU8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
         <v>5</v>
@@ -1905,13 +1972,13 @@
         <v>18</v>
       </c>
       <c r="BA8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BB8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -1940,34 +2007,34 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
         <v>6</v>
       </c>
       <c r="G9" t="n">
-        <v>0.647</v>
+        <v>0.625</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>39.3</v>
+        <v>39.1</v>
       </c>
       <c r="J9" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.459</v>
+        <v>0.456</v>
       </c>
       <c r="L9" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="N9" t="n">
         <v>0.385</v>
@@ -1976,25 +2043,25 @@
         <v>18.6</v>
       </c>
       <c r="P9" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.705</v>
+        <v>0.71</v>
       </c>
       <c r="R9" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="S9" t="n">
-        <v>33.8</v>
+        <v>33.5</v>
       </c>
       <c r="T9" t="n">
-        <v>46.1</v>
+        <v>45.5</v>
       </c>
       <c r="U9" t="n">
         <v>22.2</v>
       </c>
       <c r="V9" t="n">
-        <v>14.5</v>
+        <v>14.8</v>
       </c>
       <c r="W9" t="n">
         <v>7.1</v>
@@ -2003,22 +2070,22 @@
         <v>5.8</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z9" t="n">
         <v>22.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>105.3</v>
+        <v>104.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
         <v>8</v>
@@ -2039,16 +2106,16 @@
         <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
@@ -2057,22 +2124,22 @@
         <v>5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU9" t="n">
         <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW9" t="n">
         <v>22</v>
@@ -2081,13 +2148,13 @@
         <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ9" t="n">
         <v>23</v>
       </c>
       <c r="BA9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -2122,106 +2189,106 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>0.444</v>
+        <v>0.412</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J10" t="n">
-        <v>84.3</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.457</v>
+        <v>0.453</v>
       </c>
       <c r="L10" t="n">
         <v>5.9</v>
       </c>
       <c r="M10" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>0.301</v>
+        <v>0.294</v>
       </c>
       <c r="O10" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P10" t="n">
         <v>25.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.663</v>
+        <v>0.661</v>
       </c>
       <c r="R10" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="S10" t="n">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="T10" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U10" t="n">
         <v>20.5</v>
       </c>
       <c r="V10" t="n">
-        <v>15.6</v>
+        <v>15.2</v>
       </c>
       <c r="W10" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
         <v>4.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB10" t="n">
-        <v>99.7</v>
+        <v>99.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.4</v>
+        <v>-1.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
         <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
@@ -2230,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="AN10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO10" t="n">
         <v>18</v>
@@ -2245,37 +2312,37 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
         <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW10" t="n">
         <v>1</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY10" t="n">
         <v>14</v>
       </c>
       <c r="AZ10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA10" t="n">
         <v>16</v>
       </c>
       <c r="BB10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -2304,85 +2371,85 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
         <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.579</v>
+        <v>0.556</v>
       </c>
       <c r="H11" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J11" t="n">
-        <v>81.40000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.473</v>
+        <v>0.471</v>
       </c>
       <c r="L11" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="M11" t="n">
-        <v>23.4</v>
+        <v>23.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.437</v>
+        <v>0.439</v>
       </c>
       <c r="O11" t="n">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="P11" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.72</v>
+        <v>0.715</v>
       </c>
       <c r="R11" t="n">
         <v>9.5</v>
       </c>
       <c r="S11" t="n">
-        <v>33.9</v>
+        <v>34.3</v>
       </c>
       <c r="T11" t="n">
-        <v>43.4</v>
+        <v>43.8</v>
       </c>
       <c r="U11" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V11" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="W11" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.5</v>
+        <v>22.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.4</v>
+        <v>102.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,13 +2461,13 @@
         <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AK11" t="n">
         <v>5</v>
@@ -2409,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="AM11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN11" t="n">
         <v>1</v>
@@ -2418,40 +2485,40 @@
         <v>22</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR11" t="n">
         <v>26</v>
       </c>
       <c r="AS11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW11" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
         <v>7</v>
       </c>
       <c r="AY11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BB11" t="n">
         <v>11</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>6.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2576,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI12" t="n">
         <v>12</v>
@@ -2606,22 +2673,22 @@
         <v>27</v>
       </c>
       <c r="AR12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS12" t="n">
         <v>2</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>16</v>
       </c>
       <c r="AV12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>10.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2758,25 +2825,25 @@
         <v>1</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
         <v>22</v>
       </c>
       <c r="AJ13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL13" t="n">
         <v>16</v>
       </c>
       <c r="AM13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO13" t="n">
         <v>10</v>
@@ -2797,7 +2864,7 @@
         <v>6</v>
       </c>
       <c r="AU13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV13" t="n">
         <v>20</v>
@@ -2815,7 +2882,7 @@
         <v>6</v>
       </c>
       <c r="BA13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>4.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2940,7 +3007,7 @@
         <v>7</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2958,7 +3025,7 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2967,31 +3034,31 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
         <v>12</v>
       </c>
       <c r="AT14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
       </c>
       <c r="AV14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW14" t="n">
         <v>10</v>
       </c>
-      <c r="AW14" t="n">
-        <v>9</v>
-      </c>
       <c r="AX14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ14" t="n">
         <v>29</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-1.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>11</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="n">
         <v>13</v>
@@ -3125,7 +3192,7 @@
         <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>4</v>
@@ -3155,7 +3222,7 @@
         <v>21</v>
       </c>
       <c r="AS15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT15" t="n">
         <v>9</v>
@@ -3164,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW15" t="n">
         <v>27</v>
@@ -3173,19 +3240,19 @@
         <v>4</v>
       </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ15" t="n">
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB15" t="n">
         <v>14</v>
       </c>
       <c r="BC15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -3214,106 +3281,106 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="n">
         <v>8</v>
       </c>
       <c r="G16" t="n">
-        <v>0.529</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37.1</v>
+        <v>36.6</v>
       </c>
       <c r="J16" t="n">
-        <v>80.40000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.462</v>
+        <v>0.456</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="M16" t="n">
         <v>13.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.326</v>
+        <v>0.324</v>
       </c>
       <c r="O16" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="P16" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.773</v>
+        <v>0.783</v>
       </c>
       <c r="R16" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S16" t="n">
         <v>30.9</v>
       </c>
       <c r="T16" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U16" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="V16" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="W16" t="n">
         <v>7.1</v>
       </c>
       <c r="X16" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y16" t="n">
         <v>5.1</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>94.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.1</v>
+        <v>-2.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>9</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK16" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3325,13 +3392,13 @@
         <v>26</v>
       </c>
       <c r="AO16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP16" t="n">
         <v>25</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
         <v>24</v>
@@ -3340,34 +3407,34 @@
         <v>19</v>
       </c>
       <c r="AT16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AU16" t="n">
         <v>13</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW16" t="n">
         <v>22</v>
       </c>
       <c r="AX16" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB16" t="n">
         <v>24</v>
       </c>
       <c r="BC16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -3396,94 +3463,94 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
         <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>0.778</v>
+        <v>0.824</v>
       </c>
       <c r="H17" t="n">
         <v>48</v>
       </c>
       <c r="I17" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J17" t="n">
-        <v>75.09999999999999</v>
+        <v>74.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.508</v>
+        <v>0.513</v>
       </c>
       <c r="L17" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="M17" t="n">
-        <v>21.1</v>
+        <v>20.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.411</v>
+        <v>0.418</v>
       </c>
       <c r="O17" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="P17" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.764</v>
+        <v>0.768</v>
       </c>
       <c r="R17" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="T17" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="U17" t="n">
-        <v>24.3</v>
+        <v>24.6</v>
       </c>
       <c r="V17" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="W17" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AD17" t="n">
         <v>16</v>
-      </c>
-      <c r="W17" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="X17" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>21.9</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>104.1</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>10</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
       </c>
       <c r="AF17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH17" t="n">
         <v>23</v>
@@ -3501,10 +3568,10 @@
         <v>8</v>
       </c>
       <c r="AM17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AO17" t="n">
         <v>8</v>
@@ -3513,13 +3580,13 @@
         <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3528,25 +3595,25 @@
         <v>3</v>
       </c>
       <c r="AV17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA17" t="n">
         <v>8</v>
       </c>
-      <c r="BA17" t="n">
-        <v>9</v>
-      </c>
       <c r="BB17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC17" t="n">
         <v>3</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -3578,115 +3645,115 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" t="n">
-        <v>0.176</v>
+        <v>0.188</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>33.9</v>
+        <v>33.7</v>
       </c>
       <c r="J18" t="n">
-        <v>81.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.418</v>
+        <v>0.415</v>
       </c>
       <c r="L18" t="n">
         <v>7.5</v>
       </c>
       <c r="M18" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.386</v>
+        <v>0.382</v>
       </c>
       <c r="O18" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="P18" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.779</v>
+        <v>0.774</v>
       </c>
       <c r="R18" t="n">
-        <v>10.2</v>
+        <v>10.4</v>
       </c>
       <c r="S18" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="T18" t="n">
-        <v>39.5</v>
+        <v>39.9</v>
       </c>
       <c r="U18" t="n">
         <v>21.1</v>
       </c>
       <c r="V18" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="W18" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="X18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y18" t="n">
         <v>4.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.2</v>
+        <v>18.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>89.8</v>
+        <v>89.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>-9.5</v>
+        <v>-9.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
       </c>
       <c r="AF18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG18" t="n">
         <v>29</v>
       </c>
-      <c r="AG18" t="n">
-        <v>30</v>
-      </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK18" t="n">
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM18" t="n">
         <v>22</v>
       </c>
       <c r="AN18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -3695,37 +3762,37 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT18" t="n">
         <v>29</v>
       </c>
       <c r="AU18" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>25</v>
       </c>
       <c r="AW18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AX18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY18" t="n">
         <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>4.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>11</v>
@@ -3853,7 +3920,7 @@
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AJ19" t="n">
         <v>1</v>
@@ -3868,13 +3935,13 @@
         <v>5</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
         <v>4</v>
@@ -3892,7 +3959,7 @@
         <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW19" t="n">
         <v>3</v>
@@ -3907,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="BA19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>1.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
         <v>11</v>
@@ -4032,25 +4099,25 @@
         <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AJ20" t="n">
         <v>3</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM20" t="n">
         <v>27</v>
       </c>
       <c r="AN20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
@@ -4062,19 +4129,19 @@
         <v>10</v>
       </c>
       <c r="AR20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT20" t="n">
         <v>16</v>
       </c>
       <c r="AU20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW20" t="n">
         <v>2</v>
@@ -4086,16 +4153,16 @@
         <v>27</v>
       </c>
       <c r="AZ20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BA20" t="n">
         <v>17</v>
       </c>
       <c r="BB20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-6.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
         <v>29</v>
       </c>
       <c r="AF21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG21" t="n">
         <v>29</v>
@@ -4220,16 +4287,16 @@
         <v>24</v>
       </c>
       <c r="AJ21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN21" t="n">
         <v>28</v>
@@ -4265,13 +4332,13 @@
         <v>14</v>
       </c>
       <c r="AY21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ21" t="n">
         <v>28</v>
       </c>
       <c r="BA21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -4306,49 +4373,49 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" t="n">
         <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I22" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J22" t="n">
         <v>82.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L22" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M22" t="n">
         <v>18.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O22" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="P22" t="n">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="R22" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S22" t="n">
         <v>35.9</v>
@@ -4360,52 +4427,52 @@
         <v>21.3</v>
       </c>
       <c r="V22" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W22" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="X22" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.7</v>
+        <v>104.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AD22" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK22" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AL22" t="n">
         <v>24</v>
@@ -4414,7 +4481,7 @@
         <v>23</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO22" t="n">
         <v>2</v>
@@ -4435,28 +4502,28 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV22" t="n">
         <v>21</v>
       </c>
       <c r="AW22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AX22" t="n">
         <v>5</v>
       </c>
       <c r="AY22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
         <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -4488,124 +4555,124 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="n">
         <v>6</v>
       </c>
       <c r="F23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>0.333</v>
+        <v>0.353</v>
       </c>
       <c r="H23" t="n">
-        <v>48.8</v>
+        <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
-        <v>82.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.463</v>
+        <v>0.46</v>
       </c>
       <c r="L23" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M23" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="N23" t="n">
-        <v>0.364</v>
+        <v>0.374</v>
       </c>
       <c r="O23" t="n">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="P23" t="n">
-        <v>21.3</v>
+        <v>20.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R23" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S23" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="T23" t="n">
-        <v>41.8</v>
+        <v>42.3</v>
       </c>
       <c r="U23" t="n">
-        <v>21.4</v>
+        <v>21</v>
       </c>
       <c r="V23" t="n">
-        <v>17.4</v>
+        <v>17.2</v>
       </c>
       <c r="W23" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.7</v>
+        <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>99.8</v>
+        <v>98.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF23" t="n">
         <v>22</v>
       </c>
       <c r="AG23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP23" t="n">
         <v>24</v>
       </c>
-      <c r="AH23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>22</v>
-      </c>
       <c r="AQ23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR23" t="n">
         <v>27</v>
@@ -4614,16 +4681,16 @@
         <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW23" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
         <v>19</v>
@@ -4632,13 +4699,13 @@
         <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BC23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -4670,139 +4737,139 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" t="n">
         <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>0.368</v>
+        <v>0.333</v>
       </c>
       <c r="H24" t="n">
-        <v>49.6</v>
+        <v>49.1</v>
       </c>
       <c r="I24" t="n">
-        <v>39.9</v>
+        <v>39.6</v>
       </c>
       <c r="J24" t="n">
-        <v>88.7</v>
+        <v>88.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.45</v>
+        <v>0.448</v>
       </c>
       <c r="L24" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="M24" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.33</v>
+        <v>0.327</v>
       </c>
       <c r="O24" t="n">
-        <v>16.9</v>
+        <v>16.6</v>
       </c>
       <c r="P24" t="n">
-        <v>24.2</v>
+        <v>23.7</v>
       </c>
       <c r="Q24" t="n">
         <v>0.702</v>
       </c>
       <c r="R24" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="S24" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="T24" t="n">
-        <v>46.2</v>
+        <v>45.7</v>
       </c>
       <c r="U24" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="V24" t="n">
-        <v>18.1</v>
+        <v>17.8</v>
       </c>
       <c r="W24" t="n">
         <v>8.9</v>
       </c>
       <c r="X24" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.7</v>
+        <v>20.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>104.2</v>
+        <v>103</v>
       </c>
       <c r="AC24" t="n">
-        <v>-6.6</v>
+        <v>-7.1</v>
       </c>
       <c r="AD24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH24" t="n">
         <v>2</v>
       </c>
-      <c r="AE24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>1</v>
-      </c>
       <c r="AI24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AJ24" t="n">
         <v>2</v>
       </c>
       <c r="AK24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AO24" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
         <v>11</v>
       </c>
       <c r="AQ24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU24" t="n">
         <v>9</v>
       </c>
       <c r="AV24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW24" t="n">
         <v>7</v>
@@ -4814,16 +4881,16 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>18</v>
       </c>
       <c r="BB24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BC24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" t="n">
         <v>9</v>
       </c>
       <c r="F25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5</v>
+        <v>0.529</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4870,85 +4937,85 @@
         <v>37.8</v>
       </c>
       <c r="J25" t="n">
-        <v>81.59999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.463</v>
+        <v>0.466</v>
       </c>
       <c r="L25" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>25.4</v>
+        <v>25.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.36</v>
+        <v>0.368</v>
       </c>
       <c r="O25" t="n">
-        <v>16.4</v>
+        <v>16.8</v>
       </c>
       <c r="P25" t="n">
-        <v>22.2</v>
+        <v>22.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.739</v>
+        <v>0.742</v>
       </c>
       <c r="R25" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="S25" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="T25" t="n">
         <v>41.1</v>
       </c>
       <c r="U25" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="V25" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W25" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="X25" t="n">
         <v>4.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>101.1</v>
+        <v>101.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE25" t="n">
         <v>11</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK25" t="n">
         <v>6</v>
@@ -4957,46 +5024,46 @@
         <v>5</v>
       </c>
       <c r="AM25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AQ25" t="n">
         <v>20</v>
       </c>
       <c r="AR25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS25" t="n">
         <v>20</v>
       </c>
-      <c r="AS25" t="n">
-        <v>22</v>
-      </c>
       <c r="AT25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AU25" t="n">
         <v>26</v>
       </c>
       <c r="AV25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA25" t="n">
         <v>19</v>
@@ -5005,7 +5072,7 @@
         <v>13</v>
       </c>
       <c r="BC25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>2</v>
@@ -5124,10 +5191,10 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ26" t="n">
         <v>6</v>
@@ -5139,22 +5206,22 @@
         <v>4</v>
       </c>
       <c r="AM26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO26" t="n">
         <v>11</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS26" t="n">
         <v>11</v>
@@ -5163,10 +5230,10 @@
         <v>8</v>
       </c>
       <c r="AU26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5181,7 +5248,7 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -5216,85 +5283,85 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" t="n">
-        <v>0.25</v>
+        <v>0.267</v>
       </c>
       <c r="H27" t="n">
         <v>48.3</v>
       </c>
       <c r="I27" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J27" t="n">
-        <v>83.90000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.431</v>
+        <v>0.434</v>
       </c>
       <c r="L27" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="M27" t="n">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.332</v>
+        <v>0.331</v>
       </c>
       <c r="O27" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P27" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R27" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S27" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="T27" t="n">
         <v>41.1</v>
       </c>
       <c r="U27" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V27" t="n">
-        <v>13.4</v>
+        <v>13.8</v>
       </c>
       <c r="W27" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
@@ -5306,22 +5373,22 @@
         <v>27</v>
       </c>
       <c r="AH27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK27" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>24</v>
       </c>
       <c r="AL27" t="n">
         <v>20</v>
       </c>
       <c r="AM27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN27" t="n">
         <v>22</v>
@@ -5330,25 +5397,25 @@
         <v>15</v>
       </c>
       <c r="AP27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS27" t="n">
         <v>24</v>
       </c>
       <c r="AT27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW27" t="n">
         <v>14</v>
@@ -5366,7 +5433,7 @@
         <v>14</v>
       </c>
       <c r="BB27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5524,13 +5591,13 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW28" t="n">
         <v>12</v>
@@ -5539,7 +5606,7 @@
         <v>12</v>
       </c>
       <c r="AY28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -5580,160 +5647,160 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" t="n">
         <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>0.353</v>
+        <v>0.375</v>
       </c>
       <c r="H29" t="n">
         <v>48.9</v>
       </c>
       <c r="I29" t="n">
-        <v>35.1</v>
+        <v>34.8</v>
       </c>
       <c r="J29" t="n">
-        <v>82.5</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.426</v>
+        <v>0.42</v>
       </c>
       <c r="L29" t="n">
         <v>7.4</v>
       </c>
       <c r="M29" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0.344</v>
+        <v>0.341</v>
       </c>
       <c r="O29" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="P29" t="n">
-        <v>25.6</v>
+        <v>26.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.766</v>
+        <v>0.763</v>
       </c>
       <c r="R29" t="n">
-        <v>12.8</v>
+        <v>13.1</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>43.3</v>
+        <v>43.6</v>
       </c>
       <c r="U29" t="n">
         <v>17.4</v>
       </c>
       <c r="V29" t="n">
-        <v>15.2</v>
+        <v>15</v>
       </c>
       <c r="W29" t="n">
         <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>22.6</v>
+        <v>23.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.3</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.9</v>
+        <v>-0.4</v>
       </c>
       <c r="AD29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG29" t="n">
         <v>21</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>4</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN29" t="n">
         <v>19</v>
       </c>
-      <c r="AM29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>18</v>
-      </c>
       <c r="AO29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT29" t="n">
         <v>11</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>13</v>
       </c>
       <c r="AU29" t="n">
         <v>30</v>
       </c>
       <c r="AV29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW29" t="n">
         <v>26</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ29" t="n">
         <v>27</v>
       </c>
       <c r="BA29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>27</v>
@@ -5855,16 +5922,16 @@
         <v>21</v>
       </c>
       <c r="AI30" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>27</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>26</v>
-      </c>
       <c r="AK30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL30" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM30" t="n">
         <v>25</v>
@@ -5873,16 +5940,16 @@
         <v>27</v>
       </c>
       <c r="AO30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP30" t="n">
         <v>15</v>
       </c>
       <c r="AQ30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
         <v>30</v>
@@ -5909,7 +5976,7 @@
         <v>22</v>
       </c>
       <c r="BA30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
@@ -6022,19 +6089,19 @@
         <v>-0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>11</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI31" t="n">
         <v>17</v>
@@ -6049,7 +6116,7 @@
         <v>6</v>
       </c>
       <c r="AM31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN31" t="n">
         <v>6</v>
@@ -6058,7 +6125,7 @@
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
         <v>21</v>
@@ -6067,10 +6134,10 @@
         <v>25</v>
       </c>
       <c r="AS31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AU31" t="n">
         <v>6</v>
@@ -6079,7 +6146,7 @@
         <v>17</v>
       </c>
       <c r="AW31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX31" t="n">
         <v>23</v>
@@ -6094,7 +6161,7 @@
         <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC31" t="n">
         <v>16</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-3-2013-14</t>
+          <t>2013-12-03</t>
         </is>
       </c>
     </row>
